--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,21 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -70,102 +67,114 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -533,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -652,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7337662337662337</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5833333333333334</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,31 +782,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0.875</v>
       </c>
       <c r="L6">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>98</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>14</v>
-      </c>
-      <c r="M6">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4506437768240343</v>
+        <v>0.2486772486772487</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8703703703703703</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -902,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2441860465116279</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.825</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,113 +964,89 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2363636363636364</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>343</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L10">
+        <v>41</v>
+      </c>
+      <c r="M10">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L11">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <v>94</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>26</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>84</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L10">
-        <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>168</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L11">
-        <v>23</v>
-      </c>
-      <c r="M11">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.76</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7272727272727273</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7068965517241379</v>
+        <v>0.68125</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1252,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6575342465753424</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,47 +1266,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6333333333333333</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>19</v>
-      </c>
-      <c r="M21">
-        <v>19</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6103286384976526</v>
+        <v>0.577023498694517</v>
       </c>
       <c r="L22">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="M22">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5625</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L23">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5357142857142857</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5193798449612403</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L26">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="M26">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4857142857142857</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4782608695652174</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.3684210526315789</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.07655502392344497</v>
+        <v>0.40625</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.07575757575757576</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.06097560975609756</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,163 +1578,293 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>385</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.05732484076433121</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.05647058823529412</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>401</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.03837471783295711</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>426</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.03408071748878923</v>
+        <v>0.07054871220604703</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N36">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="O36">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1077</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.022508038585209</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1520</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>0.04923076923076923</v>
+      </c>
+      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="M38">
+        <v>32</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K38">
-        <v>0.01257861635220126</v>
-      </c>
-      <c r="L38">
-        <v>20</v>
-      </c>
-      <c r="M38">
-        <v>27</v>
-      </c>
-      <c r="N38">
+      <c r="K39">
+        <v>0.04618937644341801</v>
+      </c>
+      <c r="L39">
+        <v>40</v>
+      </c>
+      <c r="M39">
+        <v>41</v>
+      </c>
+      <c r="N39">
+        <v>0.98</v>
+      </c>
+      <c r="O39">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.04543325526932084</v>
+      </c>
+      <c r="L40">
+        <v>97</v>
+      </c>
+      <c r="M40">
+        <v>105</v>
+      </c>
+      <c r="N40">
+        <v>0.92</v>
+      </c>
+      <c r="O40">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.03041087026852151</v>
+      </c>
+      <c r="L41">
+        <v>94</v>
+      </c>
+      <c r="M41">
+        <v>110</v>
+      </c>
+      <c r="N41">
+        <v>0.85</v>
+      </c>
+      <c r="O41">
+        <v>0.15</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.02606882168925964</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>34</v>
+      </c>
+      <c r="N42">
         <v>0.74</v>
       </c>
-      <c r="O38">
+      <c r="O42">
         <v>0.26</v>
       </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>1570</v>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.01726844583987441</v>
+      </c>
+      <c r="L43">
+        <v>55</v>
+      </c>
+      <c r="M43">
+        <v>71</v>
+      </c>
+      <c r="N43">
+        <v>0.77</v>
+      </c>
+      <c r="O43">
+        <v>0.23</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3130</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -61,64 +61,61 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
@@ -127,64 +124,61 @@
     <t>hand</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -545,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6712328767123288</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C5">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2945736434108527</v>
+        <v>0.2926356589147287</v>
       </c>
       <c r="C6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.875</v>
@@ -835,16 +829,16 @@
         <v>142</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8658536585365854</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L7">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,16 +879,16 @@
         <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8046875</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1428571428571428</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,69 +926,45 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L9">
+        <v>65</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="C10">
+      <c r="K10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L10">
         <v>28</v>
       </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>343</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L10">
-        <v>41</v>
-      </c>
       <c r="M10">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7605633802816901</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L14">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7169811320754716</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.68125</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6507936507936508</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,12 +1236,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.6041666666666666</v>
@@ -1297,16 +1267,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.577023498694517</v>
+        <v>0.5822454308093995</v>
       </c>
       <c r="L22">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M22">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5638297872340425</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L23">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5555555555555556</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5254237288135594</v>
+        <v>0.5029411764705882</v>
       </c>
       <c r="L25">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M25">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5176470588235295</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L26">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5168539325842697</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4794520547945205</v>
+        <v>0.4610169491525424</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4461538461538462</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,12 +1470,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>0.40625</v>
@@ -1531,16 +1501,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.3807531380753138</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L31">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,47 +1522,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>148</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3717948717948718</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3571428571428572</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1604,125 +1574,125 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.09569377990430622</v>
+        <v>0.09112709832134293</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.07211538461538461</v>
+        <v>0.06494960806270997</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>386</v>
+        <v>835</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.07054871220604703</v>
+        <v>0.04590163934426229</v>
       </c>
       <c r="L36">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="M36">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>830</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.05216426193118757</v>
+        <v>0.04489164086687306</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>854</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.04923076923076923</v>
+        <v>0.04267589388696655</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1734,137 +1704,111 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>618</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.04618937644341801</v>
+        <v>0.04111111111111111</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>826</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.04543325526932084</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="L40">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O40">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2038</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.03041087026852151</v>
+        <v>0.02457161332040091</v>
       </c>
       <c r="L41">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="M41">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N41">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="O41">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2997</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.02606882168925964</v>
+        <v>0.02321932852212112</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="N42">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="O42">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43">
-        <v>0.01726844583987441</v>
-      </c>
-      <c r="L43">
-        <v>55</v>
-      </c>
-      <c r="M43">
-        <v>71</v>
-      </c>
-      <c r="N43">
-        <v>0.77</v>
-      </c>
-      <c r="O43">
-        <v>0.23</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>3130</v>
+        <v>3113</v>
       </c>
     </row>
   </sheetData>
